--- a/data/trans_orig/POLIPATOLOGIA_Lim_5-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/POLIPATOLOGIA_Lim_5-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>90267</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>73357</v>
+        <v>73482</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>111583</v>
+        <v>109607</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09261513194048344</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07526583731085536</v>
+        <v>0.07539374411320002</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1144859799939409</v>
+        <v>0.112458541444353</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>238</v>
@@ -764,19 +764,19 @@
         <v>254826</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>227879</v>
+        <v>225480</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>288636</v>
+        <v>285494</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1904819641508789</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1703390094322513</v>
+        <v>0.1685460491165952</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.215754688831438</v>
+        <v>0.2134062828684324</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>321</v>
@@ -785,19 +785,19 @@
         <v>345093</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>310153</v>
+        <v>312448</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>380656</v>
+        <v>382653</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1492332215880235</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.134123482301563</v>
+        <v>0.1351160780503083</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1646124460590268</v>
+        <v>0.1654757979897976</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>884376</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>863060</v>
+        <v>865036</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>901286</v>
+        <v>901161</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9073848680595166</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8855140200060591</v>
+        <v>0.8875414585556469</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.924734162689144</v>
+        <v>0.9246062558867995</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1009</v>
@@ -835,19 +835,19 @@
         <v>1082971</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1049161</v>
+        <v>1052303</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1109918</v>
+        <v>1112317</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8095180358491211</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.784245311168562</v>
+        <v>0.7865937171315674</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8296609905677487</v>
+        <v>0.8314539508834048</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1834</v>
@@ -856,19 +856,19 @@
         <v>1967347</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1931784</v>
+        <v>1929787</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2002287</v>
+        <v>1999992</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8507667784119765</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8353875539409733</v>
+        <v>0.8345242020102022</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8658765176984371</v>
+        <v>0.8648839219496917</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>25832</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17891</v>
+        <v>16905</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37736</v>
+        <v>36574</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01315286967292334</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00910949713384621</v>
+        <v>0.008607703003777573</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01921442780484633</v>
+        <v>0.01862273827100464</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>55</v>
@@ -981,19 +981,19 @@
         <v>63515</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>47873</v>
+        <v>48451</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>83300</v>
+        <v>84211</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03613336843855362</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02723453003875031</v>
+        <v>0.02756357435962939</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04738856003901654</v>
+        <v>0.04790707872281285</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>80</v>
@@ -1002,19 +1002,19 @@
         <v>89347</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>70476</v>
+        <v>72381</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>110839</v>
+        <v>112946</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02400665420801791</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01893616777155506</v>
+        <v>0.01944793717915023</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02978122787658765</v>
+        <v>0.03034736253090154</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>1938125</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1926221</v>
+        <v>1927383</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1946066</v>
+        <v>1947052</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9868471303270766</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9807855721951535</v>
+        <v>0.9813772617289954</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9908905028661535</v>
+        <v>0.9913922969962224</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1580</v>
@@ -1052,19 +1052,19 @@
         <v>1694288</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1674503</v>
+        <v>1673592</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1709930</v>
+        <v>1709352</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9638666315614464</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9526114399609833</v>
+        <v>0.9520929212771871</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9727654699612497</v>
+        <v>0.9724364256403705</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3411</v>
@@ -1073,19 +1073,19 @@
         <v>3632413</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3610921</v>
+        <v>3608814</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3651284</v>
+        <v>3649379</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.975993345791982</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.970218772123413</v>
+        <v>0.9696526374690985</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.981063832228445</v>
+        <v>0.9805520628208498</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>6208</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2005</v>
+        <v>1979</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16921</v>
+        <v>16553</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0129019857251307</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004167729118520041</v>
+        <v>0.00411188902736049</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0351665494661786</v>
+        <v>0.03439981939905433</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -1198,19 +1198,19 @@
         <v>11693</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5687</v>
+        <v>5229</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>21090</v>
+        <v>20243</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02549521283789645</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01239950528999044</v>
+        <v>0.01140063041129621</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04598532452658478</v>
+        <v>0.04413722660204963</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -1219,19 +1219,19 @@
         <v>17901</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9407</v>
+        <v>10223</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>29452</v>
+        <v>29866</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01904751506428077</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01000988718427494</v>
+        <v>0.01087795416504894</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03133854335620743</v>
+        <v>0.03177893905181033</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>474973</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>464260</v>
+        <v>464628</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>479176</v>
+        <v>479202</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9870980142748693</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9648334505338215</v>
+        <v>0.9656001806009457</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.99583227088148</v>
+        <v>0.9958881109726395</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>402</v>
@@ -1269,19 +1269,19 @@
         <v>446938</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>437541</v>
+        <v>438388</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>452944</v>
+        <v>453402</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9745047871621035</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9540146754734152</v>
+        <v>0.9558627733979506</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9876004947100098</v>
+        <v>0.9885993695887038</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>836</v>
@@ -1290,19 +1290,19 @@
         <v>921912</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>910361</v>
+        <v>909947</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>930406</v>
+        <v>929590</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9809524849357192</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9686614566437926</v>
+        <v>0.9682210609481898</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9899901128157251</v>
+        <v>0.9891220458349511</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>122307</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>99949</v>
+        <v>100935</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>146492</v>
+        <v>144953</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03576443414646029</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02922660809258812</v>
+        <v>0.02951507756960713</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04283663481780383</v>
+        <v>0.04238652354038559</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>303</v>
@@ -1415,19 +1415,19 @@
         <v>330034</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>293986</v>
+        <v>297147</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>365948</v>
+        <v>367261</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09285676926917645</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08271433233116744</v>
+        <v>0.0836038748400711</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1029611444951761</v>
+        <v>0.1033306258978736</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>415</v>
@@ -1436,19 +1436,19 @@
         <v>452341</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>411237</v>
+        <v>411665</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>496654</v>
+        <v>499689</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06486092877853174</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05896702313176364</v>
+        <v>0.05902836908671661</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07121501339115785</v>
+        <v>0.07165010973645963</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>3297475</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3273290</v>
+        <v>3274829</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3319833</v>
+        <v>3318847</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9642355658535398</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9571633651821962</v>
+        <v>0.9576134764596145</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.970773391907412</v>
+        <v>0.9704849224303929</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2991</v>
@@ -1486,19 +1486,19 @@
         <v>3224196</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3188282</v>
+        <v>3186969</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3260244</v>
+        <v>3257083</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9071432307308236</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.897038855504824</v>
+        <v>0.8966693741021263</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9172856676688327</v>
+        <v>0.9163961251599287</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6081</v>
@@ -1507,19 +1507,19 @@
         <v>6521671</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6477358</v>
+        <v>6474323</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6562775</v>
+        <v>6562347</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9351390712214682</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.928784986608842</v>
+        <v>0.9283498902635402</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9410329768682363</v>
+        <v>0.9409716309132834</v>
       </c>
     </row>
     <row r="15">
@@ -1850,19 +1850,19 @@
         <v>59614</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>47487</v>
+        <v>46819</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>75715</v>
+        <v>74146</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07902725581293778</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06295058523695196</v>
+        <v>0.06206564517189537</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1003720602229472</v>
+        <v>0.09829109817165309</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>168</v>
@@ -1871,19 +1871,19 @@
         <v>196188</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>170885</v>
+        <v>170732</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>224337</v>
+        <v>221792</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1972408243631621</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1718027752069285</v>
+        <v>0.1716485445327481</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2255415622325591</v>
+        <v>0.2229829057794208</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>233</v>
@@ -1892,19 +1892,19 @@
         <v>255802</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>225609</v>
+        <v>225257</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>283999</v>
+        <v>288909</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1462553068387052</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1289927898053118</v>
+        <v>0.1287911421026638</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1623770960321514</v>
+        <v>0.165184485398912</v>
       </c>
     </row>
     <row r="5">
@@ -1921,19 +1921,19 @@
         <v>694733</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>678632</v>
+        <v>680201</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>706860</v>
+        <v>707528</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9209727441870622</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8996279397770528</v>
+        <v>0.901708901828347</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.937049414763048</v>
+        <v>0.9379343548281048</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>724</v>
@@ -1942,19 +1942,19 @@
         <v>798472</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>770323</v>
+        <v>772868</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>823775</v>
+        <v>823928</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.802759175636838</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7744584377674409</v>
+        <v>0.7770170942205792</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8281972247930715</v>
+        <v>0.8283514554672519</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1421</v>
@@ -1963,19 +1963,19 @@
         <v>1493205</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1465008</v>
+        <v>1460098</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1523398</v>
+        <v>1523750</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8537446931612948</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8376229039678487</v>
+        <v>0.8348155146010884</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8710072101946883</v>
+        <v>0.8712088578973365</v>
       </c>
     </row>
     <row r="6">
@@ -2067,19 +2067,19 @@
         <v>35539</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24670</v>
+        <v>25088</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>48921</v>
+        <v>47965</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0171155828866431</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01188141873877981</v>
+        <v>0.01208277260361808</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02356055160171414</v>
+        <v>0.02310016997728869</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>94</v>
@@ -2088,19 +2088,19 @@
         <v>104136</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>84481</v>
+        <v>83425</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>126686</v>
+        <v>125560</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05237457540463118</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04248930951515932</v>
+        <v>0.04195818903117168</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06371565572869933</v>
+        <v>0.0631493508009206</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>127</v>
@@ -2109,19 +2109,19 @@
         <v>139675</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>116837</v>
+        <v>118735</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>164375</v>
+        <v>168523</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03436303418628522</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02874436333268345</v>
+        <v>0.02921131708635622</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0404397591625256</v>
+        <v>0.04146036483142709</v>
       </c>
     </row>
     <row r="8">
@@ -2138,19 +2138,19 @@
         <v>2040846</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2027464</v>
+        <v>2028420</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2051715</v>
+        <v>2051297</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9828844171133569</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9764394483982859</v>
+        <v>0.9768998300227113</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.98811858126122</v>
+        <v>0.9879172273963818</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1814</v>
@@ -2159,19 +2159,19 @@
         <v>1884164</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1861614</v>
+        <v>1862740</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1903819</v>
+        <v>1904875</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9476254245953688</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9362843442713006</v>
+        <v>0.9368506491990799</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9575106904848406</v>
+        <v>0.9580418109688286</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3733</v>
@@ -2180,19 +2180,19 @@
         <v>3925010</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3900310</v>
+        <v>3896162</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3947848</v>
+        <v>3945950</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9656369658137148</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9595602408374745</v>
+        <v>0.9585396351685727</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9712556366673166</v>
+        <v>0.9707886829136437</v>
       </c>
     </row>
     <row r="9">
@@ -2284,19 +2284,19 @@
         <v>10937</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4824</v>
+        <v>5380</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20305</v>
+        <v>19418</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01999798679131706</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008820581933057807</v>
+        <v>0.009837256521772371</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03712821644007899</v>
+        <v>0.03550561472761764</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -2305,19 +2305,19 @@
         <v>16311</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>8808</v>
+        <v>8849</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26301</v>
+        <v>26499</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02970282042171642</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01604025541835281</v>
+        <v>0.0161137862227286</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04789432351329027</v>
+        <v>0.04825533421985267</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>23</v>
@@ -2326,19 +2326,19 @@
         <v>27248</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18262</v>
+        <v>17485</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>40763</v>
+        <v>40956</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02486038333027973</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01666156488438225</v>
+        <v>0.01595327893114503</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03719133337726942</v>
+        <v>0.03736745604072254</v>
       </c>
     </row>
     <row r="11">
@@ -2355,19 +2355,19 @@
         <v>535949</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>526581</v>
+        <v>527468</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>542062</v>
+        <v>541506</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.980002013208683</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9628717835599209</v>
+        <v>0.964494385272382</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9911794180669421</v>
+        <v>0.9901627434782276</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>512</v>
@@ -2376,19 +2376,19 @@
         <v>532829</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>522839</v>
+        <v>522641</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>540332</v>
+        <v>540291</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9702971795782835</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9521056764867097</v>
+        <v>0.9517446657801474</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9839597445816473</v>
+        <v>0.9838862137772715</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1004</v>
@@ -2397,19 +2397,19 @@
         <v>1068779</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1055264</v>
+        <v>1055071</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1077765</v>
+        <v>1078542</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9751396166697203</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9628086666227307</v>
+        <v>0.9626325439592776</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9833384351156178</v>
+        <v>0.9840467210688549</v>
       </c>
     </row>
     <row r="12">
@@ -2501,19 +2501,19 @@
         <v>106089</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>87507</v>
+        <v>85983</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>126526</v>
+        <v>127352</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03140944910035606</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02590789492971508</v>
+        <v>0.025456641678168</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03746005624701524</v>
+        <v>0.03770456588093783</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>276</v>
@@ -2522,19 +2522,19 @@
         <v>316635</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>280387</v>
+        <v>283346</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>350096</v>
+        <v>356897</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08964495082798127</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07938244801275965</v>
+        <v>0.08022030382063407</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09911844801972727</v>
+        <v>0.1010438868260099</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>383</v>
@@ -2543,19 +2543,19 @@
         <v>422724</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>382391</v>
+        <v>382553</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>465762</v>
+        <v>462906</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06117819423446875</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05534110202092175</v>
+        <v>0.05536444052083147</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06740684623483266</v>
+        <v>0.0669934238802825</v>
       </c>
     </row>
     <row r="14">
@@ -2572,19 +2572,19 @@
         <v>3271529</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3251092</v>
+        <v>3250266</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3290111</v>
+        <v>3291635</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.968590550899644</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9625399437529847</v>
+        <v>0.962295434119062</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9740921050702849</v>
+        <v>0.974543358321832</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3050</v>
@@ -2593,19 +2593,19 @@
         <v>3215465</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3182004</v>
+        <v>3175203</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3251713</v>
+        <v>3248754</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9103550491720187</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9008815519802731</v>
+        <v>0.8989561131739902</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9206175519872405</v>
+        <v>0.9197796961793659</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6158</v>
@@ -2614,19 +2614,19 @@
         <v>6486994</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6443956</v>
+        <v>6446812</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6527327</v>
+        <v>6527165</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9388218057655312</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9325931537651673</v>
+        <v>0.9330065761197174</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9446588979790782</v>
+        <v>0.9446355594791682</v>
       </c>
     </row>
     <row r="15">
@@ -2957,19 +2957,19 @@
         <v>112067</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>97401</v>
+        <v>96393</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>130171</v>
+        <v>132580</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1937103381235151</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1683601668806087</v>
+        <v>0.1666172669209271</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.225003094734928</v>
+        <v>0.2291675299871627</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>525</v>
@@ -2978,19 +2978,19 @@
         <v>283241</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>261714</v>
+        <v>263504</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>303785</v>
+        <v>306285</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.34455987279692</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3183726672354547</v>
+        <v>0.3205499583902923</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3695505142892977</v>
+        <v>0.3725922760742599</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>689</v>
@@ -2999,19 +2999,19 @@
         <v>395308</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>368478</v>
+        <v>366834</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>422269</v>
+        <v>424707</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2822487691269849</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2630921975215551</v>
+        <v>0.2619181267531311</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3014983427228093</v>
+        <v>0.303239564046642</v>
       </c>
     </row>
     <row r="5">
@@ -3028,19 +3028,19 @@
         <v>466462</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>448358</v>
+        <v>445949</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>481128</v>
+        <v>482136</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8062896618764851</v>
+        <v>0.806289661876485</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7749969052650719</v>
+        <v>0.7708324700128371</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8316398331193912</v>
+        <v>0.8333827330790728</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>902</v>
@@ -3049,19 +3049,19 @@
         <v>538797</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>518253</v>
+        <v>515753</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>560324</v>
+        <v>558534</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6554401272030801</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6304494857107024</v>
+        <v>0.6274077239257401</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6816273327645455</v>
+        <v>0.6794500416097077</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1429</v>
@@ -3070,19 +3070,19 @@
         <v>1005259</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>978298</v>
+        <v>975860</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1032089</v>
+        <v>1033733</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7177512308730153</v>
+        <v>0.7177512308730151</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6985016572771906</v>
+        <v>0.6967604359533581</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.736907802478445</v>
+        <v>0.738081873246869</v>
       </c>
     </row>
     <row r="6">
@@ -3174,19 +3174,19 @@
         <v>116543</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>97578</v>
+        <v>98220</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>139567</v>
+        <v>139813</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.052248343074121</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0437460487925137</v>
+        <v>0.04403376311867029</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06257041183382901</v>
+        <v>0.06268052955924786</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>353</v>
@@ -3195,19 +3195,19 @@
         <v>219879</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>197863</v>
+        <v>195466</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>244270</v>
+        <v>242623</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.101261842849015</v>
+        <v>0.1012618428490149</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09112262114560614</v>
+        <v>0.09001867120701071</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1124948718743439</v>
+        <v>0.1117362002093727</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>490</v>
@@ -3216,19 +3216,19 @@
         <v>336423</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>307269</v>
+        <v>305673</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>369436</v>
+        <v>368457</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07642565599311472</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06980274848757581</v>
+        <v>0.06944031543947841</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0839254591521405</v>
+        <v>0.08370292490817099</v>
       </c>
     </row>
     <row r="8">
@@ -3245,19 +3245,19 @@
         <v>2114023</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2090999</v>
+        <v>2090753</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2132988</v>
+        <v>2132346</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9477516569258793</v>
+        <v>0.947751656925879</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9374295881661711</v>
+        <v>0.9373194704407519</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.956253951207486</v>
+        <v>0.9559662368813298</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2568</v>
@@ -3266,19 +3266,19 @@
         <v>1951513</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1927122</v>
+        <v>1928769</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1973529</v>
+        <v>1975926</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.898738157150985</v>
+        <v>0.8987381571509848</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8875051281256562</v>
+        <v>0.8882637997906268</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9088773788543939</v>
+        <v>0.9099813287929891</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4423</v>
@@ -3287,19 +3287,19 @@
         <v>4065536</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4032523</v>
+        <v>4033502</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4094690</v>
+        <v>4096286</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9235743440068852</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9160745408478594</v>
+        <v>0.9162970750918287</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9301972515124241</v>
+        <v>0.9305596845605207</v>
       </c>
     </row>
     <row r="9">
@@ -3391,19 +3391,19 @@
         <v>17423</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11619</v>
+        <v>11501</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27398</v>
+        <v>28291</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02448460865746328</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0163282682021976</v>
+        <v>0.01616307502354024</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03850280656477375</v>
+        <v>0.03975777327955048</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>88</v>
@@ -3412,19 +3412,19 @@
         <v>57183</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46560</v>
+        <v>44721</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>69662</v>
+        <v>70318</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.07781239024148649</v>
+        <v>0.07781239024148651</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06335784616526394</v>
+        <v>0.06085528858298597</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09479466523608607</v>
+        <v>0.09568650380599497</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>110</v>
@@ -3433,19 +3433,19 @@
         <v>74605</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>62229</v>
+        <v>60874</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>90495</v>
+        <v>90926</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05157782817336662</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04302123476101315</v>
+        <v>0.04208488890666492</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06256305368361498</v>
+        <v>0.06286080228825738</v>
       </c>
     </row>
     <row r="11">
@@ -3462,19 +3462,19 @@
         <v>694164</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>684189</v>
+        <v>683296</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>699968</v>
+        <v>700086</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9755153913425367</v>
+        <v>0.9755153913425366</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9614971934352264</v>
+        <v>0.9602422267204492</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9836717317978024</v>
+        <v>0.9838369249764594</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>916</v>
@@ -3483,19 +3483,19 @@
         <v>677694</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>665215</v>
+        <v>664559</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>688317</v>
+        <v>690156</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9221876097585134</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9052053347639138</v>
+        <v>0.9043134961940051</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.936642153834736</v>
+        <v>0.9391447114170141</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1575</v>
@@ -3504,19 +3504,19 @@
         <v>1371859</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1355969</v>
+        <v>1355538</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1384235</v>
+        <v>1385590</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9484221718266335</v>
+        <v>0.9484221718266334</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.937436946316385</v>
+        <v>0.9371391977117426</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9569787652389868</v>
+        <v>0.957915111093335</v>
       </c>
     </row>
     <row r="12">
@@ -3608,19 +3608,19 @@
         <v>246033</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>218386</v>
+        <v>222089</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>279803</v>
+        <v>279394</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.06988231221167299</v>
+        <v>0.069882312211673</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06202944060172214</v>
+        <v>0.06308123096275932</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07947403666600736</v>
+        <v>0.07935787977993802</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>966</v>
@@ -3629,19 +3629,19 @@
         <v>560303</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>524962</v>
+        <v>527463</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>596301</v>
+        <v>593801</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.150283479213559</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1408043720778339</v>
+        <v>0.141475109710803</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1599388961426897</v>
+        <v>0.1592683879858612</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1289</v>
@@ -3650,19 +3650,19 @@
         <v>806336</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>766154</v>
+        <v>764509</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>860250</v>
+        <v>855619</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1112343147610254</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1056911444515814</v>
+        <v>0.1054641748036787</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1186716621820711</v>
+        <v>0.118032916240287</v>
       </c>
     </row>
     <row r="14">
@@ -3679,19 +3679,19 @@
         <v>3274650</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3240880</v>
+        <v>3241289</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3302297</v>
+        <v>3298594</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9301176877883269</v>
+        <v>0.930117687788327</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9205259633339926</v>
+        <v>0.920642120220062</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9379705593982779</v>
+        <v>0.9369187690372405</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4386</v>
@@ -3700,19 +3700,19 @@
         <v>3168004</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3132006</v>
+        <v>3134506</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3203345</v>
+        <v>3200844</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8497165207864411</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8400611038573106</v>
+        <v>0.8407316120141389</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8591956279221661</v>
+        <v>0.858524890289197</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>7427</v>
@@ -3721,19 +3721,19 @@
         <v>6442654</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6388740</v>
+        <v>6393371</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6482836</v>
+        <v>6484481</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8887656852389745</v>
+        <v>0.8887656852389746</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.881328337817929</v>
+        <v>0.8819670837597129</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8943088555484185</v>
+        <v>0.8945358251963212</v>
       </c>
     </row>
     <row r="15">
